--- a/fantasyTeams_df.xlsx
+++ b/fantasyTeams_df.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allan\Documents\DS_Projects\Fantasy Football 24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D496AC-C5BA-415C-A881-132E7B3229C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240F9AFF-1538-428D-9D12-7D7FDE084232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,9 +73,6 @@
     <t>AH</t>
   </si>
   <si>
-    <t>Aida's Astounding Team</t>
-  </si>
-  <si>
     <t>AAT</t>
   </si>
   <si>
@@ -130,9 +127,6 @@
     <t>MM</t>
   </si>
   <si>
-    <t>Magic Mikaela</t>
-  </si>
-  <si>
     <t>https://g.espncdn.com/lm-static/logo-packs/core/CatsAndDogs/cats_dogs-6.svg</t>
   </si>
   <si>
@@ -148,9 +142,6 @@
     <t>KN</t>
   </si>
   <si>
-    <t>Kelly's Deluxe Team</t>
-  </si>
-  <si>
     <t>KDT</t>
   </si>
   <si>
@@ -173,6 +164,15 @@
   </si>
   <si>
     <t>Taylor</t>
+  </si>
+  <si>
+    <t>A's Astounding Team</t>
+  </si>
+  <si>
+    <t>Magic M</t>
+  </si>
+  <si>
+    <t>K's Deluxe Team</t>
   </si>
 </sst>
 </file>
@@ -593,7 +593,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -633,7 +633,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -650,7 +650,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -667,7 +667,7 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -678,101 +678,101 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
         <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s">
         <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
         <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
         <v>27</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" t="s">
         <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
         <v>31</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>32</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
         <v>33</v>
-      </c>
-      <c r="D9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
         <v>35</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -780,50 +780,50 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
         <v>38</v>
-      </c>
-      <c r="C11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s">
         <v>41</v>
-      </c>
-      <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" t="s">
         <v>45</v>
-      </c>
-      <c r="B13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
